--- a/aula_bd_64.xlsx
+++ b/aula_bd_64.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPI0031492\Desktop\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5EB097-179D-4F1C-A578-988378FAE79E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F2C81-4660-484A-BD05-C625D383E626}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{B28996BF-FC1A-4102-9BE1-239338CA59EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{B28996BF-FC1A-4102-9BE1-239338CA59EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha Pagamento" sheetId="1" r:id="rId1"/>
     <sheet name="Média Salarial" sheetId="2" r:id="rId2"/>
+    <sheet name="N° de Funcionários" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Departamento</t>
   </si>
@@ -87,15 +88,21 @@
   <si>
     <t>Média Sálarial</t>
   </si>
+  <si>
+    <t>Departamentos</t>
+  </si>
+  <si>
+    <t>N° de Funcionários</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +114,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,9 +191,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,11 +203,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFCCCCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFF66FF"/>
     </mruColors>
@@ -214,26 +230,46 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27843736924188822"/>
-          <c:y val="0.35261738584185665"/>
-          <c:w val="0.14946327361253756"/>
-          <c:h val="0.24631851484220718"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -243,18 +279,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Folha Pagamento'!$A$16</c:f>
+              <c:f>'Folha Pagamento'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gerente de Produção</c:v>
+                  <c:v>Folha pagamento</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -264,64 +300,106 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Folha Pagamento'!$B$1:$B$15</c:f>
+              <c:f>'Folha Pagamento'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Folha pagamento</c:v>
+                  <c:v>Financeiro</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> R$ 855.359,60 </c:v>
+                  <c:v>Vendas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> R$ 1.216.069,26 </c:v>
+                  <c:v>Desenvolvimento de Produtos</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> R$ 1.100.174,19 </c:v>
+                  <c:v>TI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> R$ 973.708,36 </c:v>
+                  <c:v>Jurídico</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> R$ 969.869,93 </c:v>
+                  <c:v>Qualidade</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> R$ 1.165.292,44 </c:v>
+                  <c:v>Administrção</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> R$ 844.344,13 </c:v>
+                  <c:v>Atendimento ao Cliente</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> R$ 1.002.342,74 </c:v>
+                  <c:v>Recursos Humanos</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> R$ 991.205,66 </c:v>
+                  <c:v>Marketing</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> R$ 984.125,96 </c:v>
+                  <c:v>Produção</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> R$ 1.010.380,49 </c:v>
+                  <c:v>Executivo</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> R$ 1.056.792,59 </c:v>
+                  <c:v>Gerente Financeiro</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> R$ 1.142.670,41 </c:v>
+                  <c:v>Gerente de Marketing</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> R$ 955.635,95 </c:v>
+                  <c:v>Gerente de Produção</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Folha Pagamento'!$B$16</c:f>
+              <c:f>'Folha Pagamento'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>855359.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1216069.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100174.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>973708.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>969869.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1165292.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>844344.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1002342.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>991205.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>984125.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010380.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1056792.5900000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1142670.4099999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>955635.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1072363.45</c:v>
                 </c:pt>
               </c:numCache>
@@ -329,7 +407,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53B1-405A-864D-46A7CB18C5CA}"/>
+              <c16:uniqueId val="{00000000-30A0-4420-BD50-269A91D2D6E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,11 +421,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1226202512"/>
-        <c:axId val="1093039456"/>
+        <c:axId val="1764916991"/>
+        <c:axId val="1765171775"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1226202512"/>
+        <c:axId val="1764916991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +468,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093039456"/>
+        <c:crossAx val="1765171775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -398,12 +476,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1093039456"/>
+        <c:axId val="1765171775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -435,13 +527,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226202512"/>
+        <c:crossAx val="1764916991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -449,13 +541,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -498,10 +583,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -568,7 +653,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -854,83 +939,374 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'N° de Funcionários'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N° de Funcionários</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'N° de Funcionários'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Financeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vendas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Desenvolvimento de Produtos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jurídico</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Qualidade</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Administração</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Atendendimento ao Cliente</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Recursos Humanos</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Produção</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Executivo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gerente Financeiro</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gerente de Marketing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gerente de Produção</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'N° de Funcionários'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B83-49D7-BEFF-28C7AF938434}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1764822175"/>
+        <c:axId val="1765174271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1764822175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1765174271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1765174271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764822175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
 </cs:colorStyle>
 </file>
 
@@ -1940,27 +2316,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891BF2BA-CA70-44A2-8820-AB6BA322BADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE88050-355D-47EC-A4AB-C82639878959}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,15 +2865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2002,6 +2881,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F527DC4D-8A82-49F7-81EB-E87F01115349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE10345-D149-43AE-99B3-1E5602F1C540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +3242,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +3275,7 @@
         <v>1216069.26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +3315,7 @@
         <v>844344.13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2470,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01677DB5-F085-4313-9922-EBC9A99B47B5}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,4 +3533,153 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A098045-1AEA-4A07-8EB6-EB5A8C8CF5A8}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>